--- a/Report/Cost Analysis.xlsx
+++ b/Report/Cost Analysis.xlsx
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Coffees per day</t>
   </si>
   <si>
-    <t>Initial Costs</t>
-  </si>
-  <si>
-    <t>Annual costs</t>
-  </si>
-  <si>
     <t>Price per coffee</t>
   </si>
   <si>
@@ -74,13 +68,28 @@
     <t>Number of days worked (Human)</t>
   </si>
   <si>
-    <t>Annual Profit</t>
-  </si>
-  <si>
-    <t>Annual Revenue</t>
-  </si>
-  <si>
-    <t>Daily Revenue</t>
+    <t>Initial Costs ($)</t>
+  </si>
+  <si>
+    <t>Annual costs ($)</t>
+  </si>
+  <si>
+    <t>Daily Revenue ($)</t>
+  </si>
+  <si>
+    <t>Annual Revenue ($)</t>
+  </si>
+  <si>
+    <t>Annual Profit ($)</t>
+  </si>
+  <si>
+    <t>Time per coffee</t>
+  </si>
+  <si>
+    <t>58 seconds</t>
+  </si>
+  <si>
+    <t>10:35 minutes</t>
   </si>
 </sst>
 </file>
@@ -122,11 +131,122 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -135,19 +255,378 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -158,6 +637,41 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G3" totalsRowShown="0" headerRowDxfId="6" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14" dataCellStyle="Currency">
+  <autoFilter ref="A1:G3"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Worker" dataDxfId="13"/>
+    <tableColumn id="2" name="Initial Costs ($)" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Annual costs ($)" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Coffees per day" dataDxfId="10">
+      <calculatedColumnFormula>ROUNDDOWN(1/M23*60^2*M17,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Daily Revenue ($)" dataDxfId="9" dataCellStyle="Normal">
+      <calculatedColumnFormula>M11*D2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Annual Revenue ($)" dataDxfId="8" dataCellStyle="Normal">
+      <calculatedColumnFormula>E2*M14-L26*(M26*M11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Annual Profit ($)" dataDxfId="7" dataCellStyle="Normal">
+      <calculatedColumnFormula>F2-C2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="I1:J3" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="I1:J3"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Worker" dataDxfId="2"/>
+    <tableColumn id="2" name="Time per coffee" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,16 +940,21 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="31" bestFit="1" customWidth="1"/>
@@ -443,92 +962,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H1" s="1"/>
+      <c r="I1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="8">
         <f>27*Q18*O15</f>
         <v>53055</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="8">
         <f>ROUNDDOWN(1/M21*60^2*O18, 0)</f>
         <v>434</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="8">
         <f>M12*D2</f>
         <v>1953</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="8">
         <f>E2*O15</f>
         <v>511686</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="9">
         <f>F2-C2</f>
         <v>458631</v>
       </c>
       <c r="H2" s="2"/>
+      <c r="I2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11">
         <v>45000</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="11">
         <v>400</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <f>ROUNDDOWN(1/M24*60^2*M18,0)</f>
-        <v>46</v>
-      </c>
-      <c r="E3" s="2">
+        <v>45</v>
+      </c>
+      <c r="E3" s="11">
         <f>M12*D3</f>
-        <v>207</v>
-      </c>
-      <c r="F3" s="2">
+        <v>202.5</v>
+      </c>
+      <c r="F3" s="11">
         <f>E3*M15-L27*(M27*M12)</f>
-        <v>54157.5</v>
-      </c>
-      <c r="G3" s="2">
+        <v>52978.5</v>
+      </c>
+      <c r="G3" s="12">
         <f>F3-C3</f>
-        <v>53757.5</v>
+        <v>52578.5</v>
       </c>
       <c r="H3" s="2"/>
+      <c r="I3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M11" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -542,11 +1079,11 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G14" s="3"/>
       <c r="M14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -559,14 +1096,14 @@
     </row>
     <row r="17" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M17" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="12:17" x14ac:dyDescent="0.25">
@@ -582,7 +1119,7 @@
     </row>
     <row r="20" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M20" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="12:17" x14ac:dyDescent="0.25">
@@ -592,24 +1129,25 @@
     </row>
     <row r="23" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M23" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L24">
-        <v>10.35</v>
+        <f>10+35/60</f>
+        <v>10.583333333333334</v>
       </c>
       <c r="M24">
         <f>L24*60</f>
-        <v>621</v>
+        <v>635</v>
       </c>
     </row>
     <row r="26" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L26" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="12:17" x14ac:dyDescent="0.25">
@@ -627,5 +1165,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>